--- a/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/Subcontractor_Register.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/Subcontractor_Register.xlsx
@@ -18,9 +18,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
     <numFmt numFmtId="165" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -92,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -102,6 +104,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -176,6 +180,130 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Subcontractor Contract Values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Active Subbies'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Active Subbies'!$B$2:$B$37</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Active Subbies'!$I$2:$I$37</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Contract Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,7 +595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,7 +845,6 @@
           <t>0423456789</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>44 667 889 001</t>
@@ -913,7 +1040,6 @@
           <t>(02) 8888-1234</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>77 990 112 233</t>
@@ -1109,7 +1235,6 @@
           <t>0456789012</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>22 445 556 778</t>
@@ -1237,44 +1362,958 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SUB-015</t>
+          <t>SUB-017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>StrongSteel Reinforcement</t>
+          <t>Quality Roofing</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mark Johnson</t>
+          <t>Lisa T</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>(02) 6666-2222</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>0472221240</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>qualityroofing@example.com</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>55 778 889 001</t>
+          <t>86156811649</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>345678C</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>2025-06-20</t>
-        </is>
+          <t>LIC-185472</t>
+        </is>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>45691</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>6000</v>
+        <v>86041</v>
       </c>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SUB-018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Advanced HVAC</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0448876644</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>advancedhvac@example.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>17435225026</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>LIC-777137</t>
+        </is>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>45984</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>48445</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SUB-019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Master Tilers</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0431392630</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>mastertilers@example.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>48162228817</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>LIC-275613</t>
+        </is>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>45532</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>102979</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SUB-020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Summit Concreting</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>John S</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0422712387</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>summitconcreting@example.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>13260527032</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>LIC-338337</t>
+        </is>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>45852</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>98816</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SUB-021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Peak Glazing</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mike D</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0490698992</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>peakglazing@example.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>13281333331</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>LIC-634937</t>
+        </is>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>45590</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>73474</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SUB-022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Summit Concreting</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0432796743</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>summitconcreting@example.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>78152402848</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>LIC-650907</t>
+        </is>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>45503</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>68818</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SUB-023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Peak Glazing</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mike D</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0447622985</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>peakglazing@example.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>66383492512</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>LIC-285750</t>
+        </is>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>46043</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>149202</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SUB-024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Apex Scaffolding</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Lisa T</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0484421520</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>apexscaffolding@example.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>67168576281</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>LIC-319671</t>
+        </is>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>46025</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>86883</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SUB-025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Peak Glazing</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0469261126</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>peakglazing@example.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>90982848653</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>LIC-769600</t>
+        </is>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>45553</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>104316</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SUB-026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Prime Landscaping</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>John S</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0479523544</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>primelandscaping@example.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>80340314760</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>LIC-696384</t>
+        </is>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>45563</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>81004</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SUB-027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Expert Waterproofing</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>John S</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0427584407</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>expertwaterproofing@example.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>76335850634</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>LIC-898907</t>
+        </is>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>45990</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>105456</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SUB-028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Advanced HVAC</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0465851405</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>advancedhvac@example.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>97169177364</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>LIC-733765</t>
+        </is>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>45897</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>104109</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>IN PROGRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SUB-029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Expert Waterproofing</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sarah M</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0413323936</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>expertwaterproofing@example.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12584317462</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>LIC-617792</t>
+        </is>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>45574</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>117691</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SUB-030</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Precision Welding</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mike D</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0421097875</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>precisionwelding@example.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>36718201973</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>LIC-606097</t>
+        </is>
+      </c>
+      <c r="H31" s="10" t="n">
+        <v>45807</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>43181</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SUB-031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Elite Bricklaying</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>John S</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0418539442</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>elitebricklaying@example.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>29530211704</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>LIC-377818</t>
+        </is>
+      </c>
+      <c r="H32" s="10" t="n">
+        <v>45614</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>100562</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>IN PROGRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SUB-032</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quality Roofing</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>John S</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0478770565</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>qualityroofing@example.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>78100720659</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>LIC-648003</t>
+        </is>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>45580</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>10091</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>IN PROGRESS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SUB-033</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Summit Concreting</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0486702218</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>summitconcreting@example.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>12901153519</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>LIC-423514</t>
+        </is>
+      </c>
+      <c r="H34" s="10" t="n">
+        <v>45784</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>120258</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SUB-034</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Prime Landscaping</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0429138297</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>primelandscaping@example.com</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>94183356436</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>LIC-218448</t>
+        </is>
+      </c>
+      <c r="H35" s="10" t="n">
+        <v>45691</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>35355</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SUB-035</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Summit Concreting</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tom R</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0413557471</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>summitconcreting@example.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>98721164366</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>LIC-827744</t>
+        </is>
+      </c>
+      <c r="H36" s="10" t="n">
+        <v>45726</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>42929</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SUB-036</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Precision Welding</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Lisa T</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0434577103</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>precisionwelding@example.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>25026762417</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>LIC-345593</t>
+        </is>
+      </c>
+      <c r="H37" s="10" t="n">
+        <v>45633</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>20498</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>COMPLETE</t>
         </is>
@@ -1285,6 +2324,7 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/Subcontractor_Register.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/07_SUBCONTRACTORS/Subcontractor_Register.xlsx
@@ -18,11 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="$#,##0"/>
     <numFmt numFmtId="165" formatCode="$#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -94,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -104,8 +103,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -279,6 +280,200 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Subcontractor Contract Values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Active Subbies'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Active Subbies'!$B$2:$B$37</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Active Subbies'!$I$2:$I$37</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Contract Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Subcontractor Contract Values</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Active Subbies'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Active Subbies'!$B$2:$B$37</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Active Subbies'!$I$2:$I$37</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Contract Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -298,6 +493,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8640000" cy="5400000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1367,39 +1606,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Quality Roofing</t>
+          <t>Superior Flooring</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lisa T</t>
+          <t>Tom R</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0472221240</t>
+          <t>0498806758</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>qualityroofing@example.com</t>
+          <t>superiorflooring@example.com</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>86156811649</t>
+          <t>62000758598</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LIC-185472</t>
-        </is>
-      </c>
-      <c r="H18" s="9" t="n">
-        <v>45691</v>
+          <t>LIC-565339</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="n">
+        <v>45809</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>86041</v>
+        <v>78784</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1415,39 +1654,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Advanced HVAC</t>
+          <t>Master Tilers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tom R</t>
+          <t>John S</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0448876644</t>
+          <t>0475272564</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>advancedhvac@example.com</t>
+          <t>mastertilers@example.com</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>17435225026</t>
+          <t>43292169001</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LIC-777137</t>
-        </is>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>45984</v>
+          <t>LIC-401615</t>
+        </is>
+      </c>
+      <c r="H19" s="12" t="n">
+        <v>45559</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>48445</v>
+        <v>66407</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1463,43 +1702,43 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Master Tilers</t>
+          <t>Expert Waterproofing</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tom R</t>
+          <t>John S</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0431392630</t>
+          <t>0486023718</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>mastertilers@example.com</t>
+          <t>expertwaterproofing@example.com</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>48162228817</t>
+          <t>97886678572</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LIC-275613</t>
-        </is>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>45532</v>
+          <t>LIC-345813</t>
+        </is>
+      </c>
+      <c r="H20" s="12" t="n">
+        <v>45519</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>102979</v>
+        <v>28095</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>IN PROGRESS</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1750,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Summit Concreting</t>
+          <t>Expert Waterproofing</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1521,33 +1760,33 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0422712387</t>
+          <t>0452597889</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>summitconcreting@example.com</t>
+          <t>expertwaterproofing@example.com</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>13260527032</t>
+          <t>83207081523</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>LIC-338337</t>
-        </is>
-      </c>
-      <c r="H21" s="10" t="n">
-        <v>45852</v>
+          <t>LIC-997313</t>
+        </is>
+      </c>
+      <c r="H21" s="12" t="n">
+        <v>45588</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>98816</v>
+        <v>121449</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>IN PROGRESS</t>
         </is>
       </c>
     </row>
@@ -1559,39 +1798,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Peak Glazing</t>
+          <t>Prime Landscaping</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mike D</t>
+          <t>Lisa T</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0490698992</t>
+          <t>0494798062</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>peakglazing@example.com</t>
+          <t>primelandscaping@example.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>13281333331</t>
+          <t>43494793573</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LIC-634937</t>
-        </is>
-      </c>
-      <c r="H22" s="10" t="n">
-        <v>45590</v>
+          <t>LIC-633231</t>
+        </is>
+      </c>
+      <c r="H22" s="12" t="n">
+        <v>45956</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>73474</v>
+        <v>38299</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1607,7 +1846,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Summit Concreting</t>
+          <t>Superior Flooring</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1617,29 +1856,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0432796743</t>
+          <t>0419983532</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>summitconcreting@example.com</t>
+          <t>superiorflooring@example.com</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>78152402848</t>
+          <t>30088293285</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>LIC-650907</t>
-        </is>
-      </c>
-      <c r="H23" s="10" t="n">
-        <v>45503</v>
+          <t>LIC-938188</t>
+        </is>
+      </c>
+      <c r="H23" s="12" t="n">
+        <v>45826</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>68818</v>
+        <v>52608</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1655,43 +1894,43 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Peak Glazing</t>
+          <t>Superior Flooring</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mike D</t>
+          <t>Tom R</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0447622985</t>
+          <t>0471948799</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>peakglazing@example.com</t>
+          <t>superiorflooring@example.com</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>66383492512</t>
+          <t>15917525342</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LIC-285750</t>
-        </is>
-      </c>
-      <c r="H24" s="10" t="n">
-        <v>46043</v>
+          <t>LIC-969893</t>
+        </is>
+      </c>
+      <c r="H24" s="12" t="n">
+        <v>45938</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>149202</v>
+        <v>123896</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PENDING</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -1703,39 +1942,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apex Scaffolding</t>
+          <t>Prime Landscaping</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lisa T</t>
+          <t>Tom R</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0484421520</t>
+          <t>0482192611</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>apexscaffolding@example.com</t>
+          <t>primelandscaping@example.com</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>67168576281</t>
+          <t>12928467924</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>LIC-319671</t>
-        </is>
-      </c>
-      <c r="H25" s="10" t="n">
-        <v>46025</v>
+          <t>LIC-993984</t>
+        </is>
+      </c>
+      <c r="H25" s="12" t="n">
+        <v>45808</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>86883</v>
+        <v>10585</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1751,7 +1990,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Peak Glazing</t>
+          <t>Precision Welding</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1761,29 +2000,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0469261126</t>
+          <t>0424510683</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>peakglazing@example.com</t>
+          <t>precisionwelding@example.com</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>90982848653</t>
+          <t>32972708349</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>LIC-769600</t>
-        </is>
-      </c>
-      <c r="H26" s="10" t="n">
-        <v>45553</v>
+          <t>LIC-729364</t>
+        </is>
+      </c>
+      <c r="H26" s="12" t="n">
+        <v>45870</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>104316</v>
+        <v>56831</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1804,12 +2043,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>John S</t>
+          <t>Sarah M</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0479523544</t>
+          <t>0423839935</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1819,19 +2058,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>80340314760</t>
+          <t>41306292408</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>LIC-696384</t>
-        </is>
-      </c>
-      <c r="H27" s="10" t="n">
-        <v>45563</v>
+          <t>LIC-896840</t>
+        </is>
+      </c>
+      <c r="H27" s="12" t="n">
+        <v>45699</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>81004</v>
+        <v>78317</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1847,43 +2086,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Expert Waterproofing</t>
+          <t>Prime Landscaping</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>John S</t>
+          <t>Tom R</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0427584407</t>
+          <t>0431510527</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>expertwaterproofing@example.com</t>
+          <t>primelandscaping@example.com</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>76335850634</t>
+          <t>12610424011</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>LIC-898907</t>
-        </is>
-      </c>
-      <c r="H28" s="10" t="n">
-        <v>45990</v>
+          <t>LIC-237917</t>
+        </is>
+      </c>
+      <c r="H28" s="12" t="n">
+        <v>45817</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>105456</v>
+        <v>125635</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -1895,39 +2134,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Advanced HVAC</t>
+          <t>Apex Scaffolding</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tom R</t>
+          <t>Lisa T</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0465851405</t>
+          <t>0470321836</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>advancedhvac@example.com</t>
+          <t>apexscaffolding@example.com</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>97169177364</t>
+          <t>63987794137</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>LIC-733765</t>
-        </is>
-      </c>
-      <c r="H29" s="10" t="n">
-        <v>45897</v>
+          <t>LIC-687776</t>
+        </is>
+      </c>
+      <c r="H29" s="12" t="n">
+        <v>45654</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>104109</v>
+        <v>128569</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1943,39 +2182,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Expert Waterproofing</t>
+          <t>Peak Glazing</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sarah M</t>
+          <t>Lisa T</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0413323936</t>
+          <t>0447373335</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>expertwaterproofing@example.com</t>
+          <t>peakglazing@example.com</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12584317462</t>
+          <t>34511074950</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LIC-617792</t>
-        </is>
-      </c>
-      <c r="H30" s="10" t="n">
-        <v>45574</v>
+          <t>LIC-797816</t>
+        </is>
+      </c>
+      <c r="H30" s="12" t="n">
+        <v>45921</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>117691</v>
+        <v>54527</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1991,39 +2230,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Precision Welding</t>
+          <t>Master Tilers</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mike D</t>
+          <t>Tom R</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0421097875</t>
+          <t>0416540656</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>precisionwelding@example.com</t>
+          <t>mastertilers@example.com</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>36718201973</t>
+          <t>55817981062</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>LIC-606097</t>
-        </is>
-      </c>
-      <c r="H31" s="10" t="n">
-        <v>45807</v>
+          <t>LIC-171424</t>
+        </is>
+      </c>
+      <c r="H31" s="12" t="n">
+        <v>45842</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>43181</v>
+        <v>46307</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2039,7 +2278,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Elite Bricklaying</t>
+          <t>Precision Welding</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2049,33 +2288,33 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0418539442</t>
+          <t>0436728601</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>elitebricklaying@example.com</t>
+          <t>precisionwelding@example.com</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>29530211704</t>
+          <t>40399172241</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>LIC-377818</t>
-        </is>
-      </c>
-      <c r="H32" s="10" t="n">
-        <v>45614</v>
+          <t>LIC-265344</t>
+        </is>
+      </c>
+      <c r="H32" s="12" t="n">
+        <v>45951</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>100562</v>
+        <v>105343</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>IN PROGRESS</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2087,43 +2326,43 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Quality Roofing</t>
+          <t>Peak Glazing</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>John S</t>
+          <t>Sarah M</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0478770565</t>
+          <t>0492060417</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>qualityroofing@example.com</t>
+          <t>peakglazing@example.com</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>78100720659</t>
+          <t>15674725130</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>LIC-648003</t>
-        </is>
-      </c>
-      <c r="H33" s="10" t="n">
-        <v>45580</v>
+          <t>LIC-650256</t>
+        </is>
+      </c>
+      <c r="H33" s="12" t="n">
+        <v>45681</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>10091</v>
+        <v>61833</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>IN PROGRESS</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2374,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Summit Concreting</t>
+          <t>Expert Waterproofing</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2145,29 +2384,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0486702218</t>
+          <t>0487843093</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>summitconcreting@example.com</t>
+          <t>expertwaterproofing@example.com</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12901153519</t>
+          <t>59771094052</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>LIC-423514</t>
-        </is>
-      </c>
-      <c r="H34" s="10" t="n">
-        <v>45784</v>
+          <t>LIC-986334</t>
+        </is>
+      </c>
+      <c r="H34" s="12" t="n">
+        <v>46005</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>120258</v>
+        <v>20458</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2183,39 +2422,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Prime Landscaping</t>
+          <t>Expert Waterproofing</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tom R</t>
+          <t>John S</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0429138297</t>
+          <t>0491977395</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>primelandscaping@example.com</t>
+          <t>expertwaterproofing@example.com</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>94183356436</t>
+          <t>84043730106</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LIC-218448</t>
-        </is>
-      </c>
-      <c r="H35" s="10" t="n">
-        <v>45691</v>
+          <t>LIC-346259</t>
+        </is>
+      </c>
+      <c r="H35" s="12" t="n">
+        <v>45915</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>35355</v>
+        <v>112544</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2231,43 +2470,43 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Summit Concreting</t>
+          <t>Prime Landscaping</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tom R</t>
+          <t>Lisa T</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0413557471</t>
+          <t>0436818535</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>summitconcreting@example.com</t>
+          <t>primelandscaping@example.com</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>98721164366</t>
+          <t>47579129840</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>LIC-827744</t>
-        </is>
-      </c>
-      <c r="H36" s="10" t="n">
-        <v>45726</v>
+          <t>LIC-571932</t>
+        </is>
+      </c>
+      <c r="H36" s="12" t="n">
+        <v>45720</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>42929</v>
+        <v>146312</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
@@ -2279,43 +2518,43 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Precision Welding</t>
+          <t>Quality Roofing</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Lisa T</t>
+          <t>Tom R</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0434577103</t>
+          <t>0482938503</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>precisionwelding@example.com</t>
+          <t>qualityroofing@example.com</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>25026762417</t>
+          <t>30867639198</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>LIC-345593</t>
-        </is>
-      </c>
-      <c r="H37" s="10" t="n">
-        <v>45633</v>
+          <t>LIC-903196</t>
+        </is>
+      </c>
+      <c r="H37" s="12" t="n">
+        <v>45524</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>20498</v>
+        <v>12931</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>PENDING</t>
         </is>
       </c>
     </row>
